--- a/Data/Revenues by Region.xlsx
+++ b/Data/Revenues by Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcpud-my.sharepoint.com/personal/sharrington_gcpud_org/Documents/N Drive/Personal/Grad School Courses/ADEC7200 Macroeconomics/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\Boston College\ADEC 7200 Macroeconomics\ADEC7200-Paper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{BB6DCFB5-4C60-45F1-B94C-68B83844CA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A84DB67B-009C-4AB3-BCE3-7FDB1A808B2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736EE7F-001D-42E3-A9D3-C4F38D4DDEF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED8B819E-CF53-414A-86B7-965658AA7CE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED8B819E-CF53-414A-86B7-965658AA7CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Other Americas</t>
-  </si>
-  <si>
     <t>Adjustments</t>
   </si>
   <si>
-    <t>Eastern Hemisphere - Other</t>
+    <t>Asia.Oceania.Africa</t>
   </si>
   <si>
-    <t>Asia, Oceania, Africa</t>
+    <t>Eastern.Hemisphere.Other</t>
+  </si>
+  <si>
+    <t>Americas.Other</t>
   </si>
 </sst>
 </file>
@@ -408,23 +408,23 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -433,16 +433,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -465,7 +465,7 @@
         <v>50652</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -488,7 +488,7 @@
         <v>61388</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -511,7 +511,7 @@
         <v>76898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -534,7 +534,7 @@
         <v>90141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2020</v>
       </c>
